--- a/Film_Festival.xlsx
+++ b/Film_Festival.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerknohl/Desktop/DS4300/Hiike-Website-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C1C1467-B8E4-F54D-92B2-CAC2E6F90F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70B2F51-DD1E-AB4B-91F5-34099BBAC166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{C936E364-4A05-7A44-AFDB-F94C2F505F80}"/>
+    <workbookView xWindow="1220" yWindow="1960" windowWidth="28040" windowHeight="17440" xr2:uid="{C936E364-4A05-7A44-AFDB-F94C2F505F80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,409 +36,397 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="128">
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Qualifying</t>
+  </si>
+  <si>
+    <t>Years Running</t>
+  </si>
+  <si>
+    <t>Opening Date</t>
+  </si>
+  <si>
+    <t>Early Deadline</t>
+  </si>
+  <si>
+    <t>Regular Deadline</t>
+  </si>
+  <si>
+    <t>Final Deadline</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Max Short Runtime</t>
+  </si>
+  <si>
+    <t>Min Feature Runtime</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Filmmaker Type</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>File Type: DCP</t>
+  </si>
+  <si>
+    <t>File Type: Online Screener</t>
+  </si>
+  <si>
+    <t>City Premiere Necessary</t>
+  </si>
+  <si>
+    <t>State Premiere Necessary</t>
+  </si>
+  <si>
+    <t>National Premiere Necessary</t>
+  </si>
+  <si>
+    <t>World Premiere Necessary</t>
+  </si>
+  <si>
+    <t>Completed After Date</t>
+  </si>
+  <si>
+    <t>Completed By Date</t>
+  </si>
+  <si>
+    <t>Festival Focus</t>
+  </si>
+  <si>
+    <t>HollyShorts Film Festival</t>
+  </si>
+  <si>
+    <t>Sherman Oaks, CA, United States</t>
+  </si>
+  <si>
+    <t>Academy Award, BAFTA</t>
+  </si>
+  <si>
+    <t>Animation, Documentary, Narrative</t>
+  </si>
+  <si>
+    <t>Action, Comedy, Dark Comedy, Dark Drama, Dark Fantasy, Dark Science Fiction, Drama, Fantasy, Found Footage Horror, Found Footage Comedy, Horror Comedy, Horror, Science Fiction, Romance, Romantic Comedy, Suspense Thriller, Thriller, Family, Musical, Sport, War, Western, Black Comedy, Buddy Comedy, Coming of Age, Cyber Punk, Detective, Fantasy-Drama, Fantasy-Comedy, Mockumentary, Period Piece, Political Thriller, Science Fiction Horror, Science Fiction Thriller, Religious, Silent, Feminist, Cult, Mystery</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Palm Springs International ShortFest</t>
+  </si>
+  <si>
+    <t>Palm Springs, CA, United States</t>
+  </si>
+  <si>
+    <t>Academy Award, BAFTA, Goya, Canadian Screen</t>
+  </si>
+  <si>
+    <t>Animation, Documentary, Live Action</t>
+  </si>
+  <si>
+    <t>Student,  LGBTQIA+</t>
+  </si>
+  <si>
+    <t>International </t>
+  </si>
+  <si>
+    <t>Sundance Film Festival</t>
+  </si>
+  <si>
+    <t>Park City, UT, United States</t>
+  </si>
+  <si>
+    <t>Academy Award, BAFTA, Canadian Screen</t>
+  </si>
+  <si>
+    <t>Documentary, Narrative, Episodic, Animation </t>
+  </si>
+  <si>
+    <t> LGBTQIA+, Humanitarian, Social</t>
+  </si>
+  <si>
+    <t>Short, Feature</t>
+  </si>
+  <si>
+    <t>Slamdance Film Festival</t>
+  </si>
+  <si>
+    <t>Los Angeles, CA, United States</t>
+  </si>
+  <si>
+    <t>Narrative, Documentary, Experimental, Animation, Episodic</t>
+  </si>
+  <si>
+    <t>Atlanta Film Festival</t>
+  </si>
+  <si>
+    <t>Atlanta, GA, United States</t>
+  </si>
+  <si>
+    <t>Academy Award, Canadian Screen</t>
+  </si>
+  <si>
+    <t>Narrative, Documentary, Animation, Experimental, Episodic, Music Video</t>
+  </si>
+  <si>
+    <t>BIPOC, Georgia Filmmakers , Female,  LGBTQIA+</t>
+  </si>
+  <si>
+    <t>Brooklyn Film Festival (BFF)</t>
+  </si>
+  <si>
+    <t>Brooklyn, NY, United States</t>
+  </si>
+  <si>
+    <t>Canadian Screen Award </t>
+  </si>
+  <si>
+    <t>Narrative, Documentary, Animation, Experimental</t>
+  </si>
+  <si>
+    <t>First Time Filmmakers</t>
+  </si>
+  <si>
+    <t>Seattle International Film Festival</t>
+  </si>
+  <si>
+    <t>Seattle, WA, United States</t>
+  </si>
+  <si>
+    <t>Local Seattle Filmmaker </t>
+  </si>
+  <si>
+    <t>San Francisco International Film Festival</t>
+  </si>
+  <si>
+    <t>San Francisco, CA, United States</t>
+  </si>
+  <si>
+    <t>Academy Award , Canadian Screen Award</t>
+  </si>
+  <si>
+    <t>Narrative, Documentary, Animation</t>
+  </si>
+  <si>
+    <t>First Time  Filmmakers, Bay Area Filmmakers</t>
+  </si>
+  <si>
+    <t>Cinequest Film Festival</t>
+  </si>
+  <si>
+    <t>San Jose, CA, United States</t>
+  </si>
+  <si>
+    <t>Academy Award </t>
+  </si>
+  <si>
+    <t>Narrative, Documentary, Animation, Music Video</t>
+  </si>
+  <si>
+    <t>Comedy, Drama, Thriller, Science Fiction, Horror</t>
+  </si>
+  <si>
+    <t>Student, First Time  Filmmakers</t>
+  </si>
+  <si>
+    <t>Beverly Hills International Film Festival</t>
+  </si>
+  <si>
+    <t>Beverly Hills, CA, United States</t>
+  </si>
+  <si>
+    <t>Narrative, Animation, Documentary</t>
+  </si>
+  <si>
+    <t>Student, Beverly Hills Filmmaker </t>
+  </si>
+  <si>
+    <t>WorldFest-Houston International Film Festival</t>
+  </si>
+  <si>
+    <t>Houston, TX, United States</t>
+  </si>
+  <si>
+    <t>Narrative, Experimental, Animation</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Indy Shorts International Film Festival</t>
+  </si>
+  <si>
+    <t>Indianapolis, IN, United States</t>
+  </si>
+  <si>
+    <t>Academy Award, BAFTA, Goya </t>
+  </si>
+  <si>
+    <t>Horror, Comedy</t>
+  </si>
+  <si>
+    <t>Indiana Filmmaker, Student</t>
+  </si>
+  <si>
+    <t>Aspen Shortsfest</t>
+  </si>
+  <si>
+    <t>Aspen, CO, United States</t>
+  </si>
+  <si>
+    <t>Academy Award, BAFTA, Canadian Screen Award</t>
+  </si>
+  <si>
+    <t>Animation, Comedy, Drama, Documentary</t>
+  </si>
+  <si>
+    <t>Big Apple Film Festival</t>
+  </si>
+  <si>
+    <t>New York, United States</t>
+  </si>
+  <si>
+    <t>Narrative, Animation, Documentary, Episodic </t>
+  </si>
+  <si>
+    <t>Horror, Comedy, Drama, Science Fiction,</t>
+  </si>
+  <si>
+    <t>Women Filmmakers, Student</t>
+  </si>
+  <si>
+    <t>Shockfest Film Festival</t>
+  </si>
+  <si>
+    <t>Narrative, Experimental</t>
+  </si>
+  <si>
+    <t>Horror, Science Fiction, Thriller, Drama, Fantasy, Comedy</t>
+  </si>
+  <si>
+    <t>Dances With Films</t>
+  </si>
+  <si>
+    <t>Narrative, Documentary</t>
+  </si>
+  <si>
+    <t>Horror, Fantasy, Science Fiction, Drama, Comedy</t>
+  </si>
+  <si>
+    <t>Student, First Time  Filmmakers,   LGBTQIA+</t>
+  </si>
+  <si>
+    <t>DOC LA - Los Angeles Documentary Film Festival</t>
+  </si>
+  <si>
+    <t>Documentary, Animation, Experimental, Music Video</t>
+  </si>
+  <si>
+    <t>Los Angeles Filmmakers</t>
+  </si>
+  <si>
+    <t>Documentary </t>
+  </si>
+  <si>
+    <t>Athens International Film and Video Festival</t>
+  </si>
+  <si>
+    <t>Athens, Ohio, United States</t>
+  </si>
+  <si>
+    <t>Narrative, Animation, Documentary, Experimental</t>
+  </si>
+  <si>
+    <t>Ohio Filmmakers, Student</t>
+  </si>
+  <si>
+    <t>American Black Film Festival</t>
+  </si>
+  <si>
+    <t>Miami Beach, FL,  United States </t>
+  </si>
+  <si>
+    <t>Narrative, Documentary, Web Series </t>
+  </si>
+  <si>
+    <t>African Descent Filmmakers</t>
+  </si>
+  <si>
+    <t>POC </t>
+  </si>
+  <si>
+    <t>Dallas International Film Festival</t>
+  </si>
+  <si>
+    <t>Dallas, TX, United States </t>
+  </si>
+  <si>
+    <t>Local Texas , LatinX, Indigenous , Student</t>
+  </si>
+  <si>
+    <t>Austin Revolution Film Festival</t>
+  </si>
+  <si>
+    <t>Austin, TX, United States</t>
+  </si>
+  <si>
+    <t>Narrative, Documentary, Web Series, Music Video</t>
+  </si>
+  <si>
+    <t>Student, Central Texas Filmmakers, </t>
+  </si>
+  <si>
+    <t>AFI Fest, American Film Institute </t>
+  </si>
+  <si>
+    <t>Los Angeles, CA</t>
+  </si>
+  <si>
+    <t>Academy Award</t>
+  </si>
+  <si>
+    <t>Narrative, Documentary, Animated, Experimental</t>
+  </si>
+  <si>
+    <t>Feature, Short</t>
+  </si>
+  <si>
+    <t>Florida Film Festival</t>
+  </si>
+  <si>
+    <t>Maitland, Florida, United States </t>
+  </si>
+  <si>
+    <t>Narrative, Documentary, Experimental, Animation, Web Series </t>
+  </si>
+  <si>
+    <t>Florida Filmmakers</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Qualifying</t>
-  </si>
-  <si>
-    <t>Years Running</t>
-  </si>
-  <si>
-    <t>Opening Date</t>
-  </si>
-  <si>
-    <t>Early Deadline</t>
-  </si>
-  <si>
-    <t>Regular Deadline</t>
-  </si>
-  <si>
-    <t>Final Deadline</t>
-  </si>
-  <si>
-    <t>Style</t>
-  </si>
-  <si>
-    <t>Max Short Runtime</t>
-  </si>
-  <si>
-    <t>Min Feature Runtime</t>
-  </si>
-  <si>
-    <t>Genre</t>
-  </si>
-  <si>
-    <t>Filmmaker Type</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>File Type: DCP</t>
-  </si>
-  <si>
-    <t>File Type: Online Screener</t>
-  </si>
-  <si>
-    <t>City Premiere Necessary</t>
-  </si>
-  <si>
-    <t>State Premiere Necessary</t>
-  </si>
-  <si>
-    <t>National Premiere Necessary</t>
-  </si>
-  <si>
-    <t>World Premiere Necessary</t>
-  </si>
-  <si>
-    <t>Completed After Date</t>
-  </si>
-  <si>
-    <t>Completed By Date</t>
-  </si>
-  <si>
-    <t>Festival Focus</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>HollyShorts Film Festival</t>
-  </si>
-  <si>
-    <t>Sherman Oaks, CA, United States</t>
-  </si>
-  <si>
-    <t>Academy Award, BAFTA</t>
-  </si>
-  <si>
-    <t>Animation, Documentary, Narrative</t>
-  </si>
-  <si>
-    <t>&lt; 40</t>
-  </si>
-  <si>
-    <t>Action, Comedy, Dark Comedy, Dark Drama, Dark Fantasy, Dark Science Fiction, Drama, Fantasy, Found Footage Horror, Found Footage Comedy, Horror Comedy, Horror, Science Fiction, Romance, Romantic Comedy, Suspense Thriller, Thriller, Family, Musical, Sport, War, Western, Black Comedy, Buddy Comedy, Coming of Age, Cyber Punk, Detective, Fantasy-Drama, Fantasy-Comedy, Mockumentary, Period Piece, Political Thriller, Science Fiction Horror, Science Fiction Thriller, Religious, Silent, Feminist, Cult, Mystery</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Palm Springs International ShortFest</t>
-  </si>
-  <si>
-    <t>Palm Springs, CA, United States</t>
-  </si>
-  <si>
-    <t>Academy Award, BAFTA, Goya, Canadian Screen</t>
-  </si>
-  <si>
-    <t>Animation, Documentary, Live Action</t>
-  </si>
-  <si>
-    <t>Student,  LGBTQIA+</t>
-  </si>
-  <si>
-    <t>International </t>
-  </si>
-  <si>
-    <t>Sundance Film Festival</t>
-  </si>
-  <si>
-    <t>Park City, UT, United States</t>
-  </si>
-  <si>
-    <t>Academy Award, BAFTA, Canadian Screen</t>
-  </si>
-  <si>
-    <t>Documentary, Narrative, Episodic, Animation </t>
-  </si>
-  <si>
-    <t> LGBTQIA+, Humanitarian, Social</t>
-  </si>
-  <si>
-    <t>Short, Feature</t>
-  </si>
-  <si>
-    <t>Slamdance Film Festival</t>
-  </si>
-  <si>
-    <t>Los Angeles, CA, United States</t>
-  </si>
-  <si>
-    <t>Narrative, Documentary, Experimental, Animation, Episodic</t>
-  </si>
-  <si>
-    <t>&lt;1000000</t>
-  </si>
-  <si>
-    <t>Atlanta Film Festival</t>
-  </si>
-  <si>
-    <t>Atlanta, GA, United States</t>
-  </si>
-  <si>
-    <t>Academy Award, Canadian Screen</t>
-  </si>
-  <si>
-    <t>Narrative, Documentary, Animation, Experimental, Episodic, Music Video</t>
-  </si>
-  <si>
-    <t>BIPOC, Georgia Filmmakers , Female,  LGBTQIA+</t>
-  </si>
-  <si>
-    <t>Brooklyn Film Festival (BFF)</t>
-  </si>
-  <si>
-    <t>Brooklyn, NY, United States</t>
-  </si>
-  <si>
-    <t>Canadian Screen Award </t>
-  </si>
-  <si>
-    <t>Narrative, Documentary, Animation, Experimental</t>
-  </si>
-  <si>
-    <t>First Time Filmmakers</t>
-  </si>
-  <si>
-    <t>Seattle International Film Festival</t>
-  </si>
-  <si>
-    <t>Seattle, WA, United States</t>
-  </si>
-  <si>
-    <t>Local Seattle Filmmaker </t>
-  </si>
-  <si>
-    <t>San Francisco International Film Festival</t>
-  </si>
-  <si>
-    <t>San Francisco, CA, United States</t>
-  </si>
-  <si>
-    <t>Academy Award , Canadian Screen Award</t>
-  </si>
-  <si>
-    <t>Narrative, Documentary, Animation</t>
-  </si>
-  <si>
-    <t>First Time  Filmmakers, Bay Area Filmmakers</t>
-  </si>
-  <si>
-    <t>Cinequest Film Festival</t>
-  </si>
-  <si>
-    <t>San Jose, CA, United States</t>
-  </si>
-  <si>
-    <t>Academy Award </t>
-  </si>
-  <si>
-    <t>Narrative, Documentary, Animation, Music Video</t>
-  </si>
-  <si>
-    <t>Comedy, Drama, Thriller, Science Fiction, Horror</t>
-  </si>
-  <si>
-    <t>Student, First Time  Filmmakers</t>
-  </si>
-  <si>
-    <t>Beverly Hills International Film Festival</t>
-  </si>
-  <si>
-    <t>Beverly Hills, CA, United States</t>
-  </si>
-  <si>
-    <t>Narrative, Animation, Documentary</t>
-  </si>
-  <si>
-    <t>Student, Beverly Hills Filmmaker </t>
-  </si>
-  <si>
-    <t>WorldFest-Houston International Film Festival</t>
-  </si>
-  <si>
-    <t>Houston, TX, United States</t>
-  </si>
-  <si>
-    <t>Narrative, Experimental, Animation</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Indy Shorts International Film Festival</t>
-  </si>
-  <si>
-    <t>Indianapolis, IN, United States</t>
-  </si>
-  <si>
-    <t>Academy Award, BAFTA, Goya </t>
-  </si>
-  <si>
-    <t>Horror, Comedy</t>
-  </si>
-  <si>
-    <t>Indiana Filmmaker, Student</t>
-  </si>
-  <si>
-    <t>Aspen Shortsfest</t>
-  </si>
-  <si>
-    <t>Aspen, CO, United States</t>
-  </si>
-  <si>
-    <t>Academy Award, BAFTA, Canadian Screen Award</t>
-  </si>
-  <si>
-    <t>Animation, Comedy, Drama, Documentary</t>
-  </si>
-  <si>
-    <t>Big Apple Film Festival</t>
-  </si>
-  <si>
-    <t>New York, United States</t>
-  </si>
-  <si>
-    <t>Narrative, Animation, Documentary, Episodic </t>
-  </si>
-  <si>
-    <t>60 &gt;</t>
-  </si>
-  <si>
-    <t>Horror, Comedy, Drama, Science Fiction,</t>
-  </si>
-  <si>
-    <t>Women Filmmakers, Student</t>
-  </si>
-  <si>
-    <t>Shockfest Film Festival</t>
-  </si>
-  <si>
-    <t>Narrative, Experimental</t>
-  </si>
-  <si>
-    <t>40 &gt;</t>
-  </si>
-  <si>
-    <t>Horror, Science Fiction, Thriller, Drama, Fantasy, Comedy</t>
-  </si>
-  <si>
-    <t>Dances With Films</t>
-  </si>
-  <si>
-    <t>Narrative, Documentary</t>
-  </si>
-  <si>
-    <t>Horror, Fantasy, Science Fiction, Drama, Comedy</t>
-  </si>
-  <si>
-    <t>Student, First Time  Filmmakers,   LGBTQIA+</t>
-  </si>
-  <si>
-    <t>DOC LA - Los Angeles Documentary Film Festival</t>
-  </si>
-  <si>
-    <t>Documentary, Animation, Experimental, Music Video</t>
-  </si>
-  <si>
-    <t>Los Angeles Filmmakers</t>
-  </si>
-  <si>
-    <t>Documentary </t>
-  </si>
-  <si>
-    <t>Athens International Film and Video Festival</t>
-  </si>
-  <si>
-    <t>Athens, Ohio, United States</t>
-  </si>
-  <si>
-    <t>Narrative, Animation, Documentary, Experimental</t>
-  </si>
-  <si>
-    <t>Ohio Filmmakers, Student</t>
-  </si>
-  <si>
-    <t>American Black Film Festival</t>
-  </si>
-  <si>
-    <t>Miami Beach, FL,  United States </t>
-  </si>
-  <si>
-    <t>Narrative, Documentary, Web Series </t>
-  </si>
-  <si>
-    <t>African Descent Filmmakers</t>
-  </si>
-  <si>
-    <t>POC </t>
-  </si>
-  <si>
-    <t>Dallas International Film Festival</t>
-  </si>
-  <si>
-    <t>Dallas, TX, United States </t>
-  </si>
-  <si>
-    <t>Local Texas , LatinX, Indigenous , Student</t>
-  </si>
-  <si>
-    <t>Austin Revolution Film Festival</t>
-  </si>
-  <si>
-    <t>Austin, TX, United States</t>
-  </si>
-  <si>
-    <t>Narrative, Documentary, Web Series, Music Video</t>
-  </si>
-  <si>
-    <t>Student, Central Texas Filmmakers, </t>
-  </si>
-  <si>
-    <t>AFI Fest, American Film Institute </t>
-  </si>
-  <si>
-    <t>Los Angeles, CA</t>
-  </si>
-  <si>
-    <t>Academy Award</t>
-  </si>
-  <si>
-    <t>Narrative, Documentary, Animated, Experimental</t>
-  </si>
-  <si>
-    <t>Feature, Short</t>
-  </si>
-  <si>
-    <t>Florida Film Festival</t>
-  </si>
-  <si>
-    <t>Maitland, Florida, United States </t>
-  </si>
-  <si>
-    <t>Narrative, Documentary, Experimental, Animation, Web Series </t>
-  </si>
-  <si>
-    <t>Florida Filmmakers</t>
+    <t>Short or Feature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -465,6 +453,12 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -486,13 +480,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,98 +824,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2696CD-2213-684B-AA86-EB5BF8794234}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" s="2">
         <v>21</v>
@@ -938,25 +938,25 @@
         <v>45810</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="J2" s="2">
+        <v>40</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -965,18 +965,18 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>31</v>
@@ -994,24 +994,23 @@
         <v>45793</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2">
         <v>40</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="4"/>
+        <v>33</v>
+      </c>
       <c r="O3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -1022,21 +1021,21 @@
       </c>
       <c r="V3" s="4"/>
       <c r="W3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2">
         <v>41</v>
@@ -1054,22 +1053,22 @@
         <v>45558</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -1079,18 +1078,18 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2">
         <v>30</v>
@@ -1108,22 +1107,22 @@
         <v>45576</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M5" s="4"/>
-      <c r="N5" s="2" t="s">
-        <v>47</v>
+      <c r="N5" s="2">
+        <v>1000000</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1133,18 +1132,18 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2">
         <v>47</v>
@@ -1162,32 +1161,32 @@
         <v>45702</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="U6" s="3">
         <v>44835</v>
@@ -1195,18 +1194,18 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2">
         <v>28</v>
@@ -1224,7 +1223,7 @@
         <v>45729</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J7" s="2">
         <v>50</v>
@@ -1233,29 +1232,29 @@
         <v>50</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="U7" s="3">
         <v>45090</v>
@@ -1263,18 +1262,18 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2">
         <v>51</v>
@@ -1292,7 +1291,7 @@
         <v>45680</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J8" s="2">
         <v>40</v>
@@ -1301,48 +1300,48 @@
         <v>41</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="U8" s="5">
         <v>45315</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2">
         <v>68</v>
@@ -1360,7 +1359,7 @@
         <v>45638</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2">
         <v>30</v>
@@ -1369,50 +1368,50 @@
         <v>31</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="U9" s="3">
         <v>45536</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2">
         <v>34</v>
@@ -1430,7 +1429,7 @@
         <v>45590</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J10" s="2">
         <v>40</v>
@@ -1439,41 +1438,41 @@
         <v>50</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="2">
@@ -1492,7 +1491,7 @@
         <v>45646</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J11" s="2">
         <v>40</v>
@@ -1501,17 +1500,17 @@
         <v>40</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -1520,21 +1519,21 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2">
         <v>58</v>
@@ -1552,36 +1551,36 @@
         <v>45688</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="2">
         <v>40</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="U12" s="3">
         <v>44561</v>
@@ -1590,21 +1589,21 @@
         <v>2024</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2">
         <v>8</v>
@@ -1622,24 +1621,24 @@
         <v>45753</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J13" s="2">
         <v>40</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -1650,21 +1649,21 @@
       </c>
       <c r="V13" s="4"/>
       <c r="W13" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2">
         <v>34</v>
@@ -1682,33 +1681,33 @@
         <v>45634</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J14" s="2">
         <v>40</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="5">
@@ -1717,15 +1716,15 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="2">
@@ -1744,22 +1743,22 @@
         <v>45569</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="2" t="s">
-        <v>92</v>
+      <c r="K15" s="2">
+        <v>60</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -1771,12 +1770,12 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1796,24 +1795,24 @@
         <v>45592</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J16" s="2">
         <v>40</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>97</v>
+      <c r="K16" s="2">
+        <v>40</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -1823,15 +1822,15 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="2">
@@ -1850,26 +1849,26 @@
         <v>45583</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J17" s="2">
         <v>40</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>97</v>
+      <c r="K17" s="2">
+        <v>40</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -1881,15 +1880,15 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="2">
@@ -1908,7 +1907,7 @@
         <v>45890</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J18" s="2">
         <v>15</v>
@@ -1917,17 +1916,17 @@
         <v>40</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -1936,21 +1935,21 @@
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2">
         <v>52</v>
@@ -1968,7 +1967,7 @@
         <v>45627</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J19" s="2">
         <v>15</v>
@@ -1977,15 +1976,15 @@
         <v>40</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -1994,21 +1993,21 @@
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2">
         <v>29</v>
@@ -2026,7 +2025,7 @@
         <v>45786</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J20" s="2">
         <v>30</v>
@@ -2035,15 +2034,15 @@
         <v>72</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -2054,21 +2053,21 @@
       </c>
       <c r="V20" s="4"/>
       <c r="W20" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D21" s="2">
         <v>18</v>
@@ -2086,48 +2085,48 @@
         <v>45717</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="2">
@@ -2146,23 +2145,23 @@
         <v>45638</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
@@ -2171,18 +2170,18 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D23" s="2">
         <v>38</v>
@@ -2192,19 +2191,19 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>28</v>
+        <v>120</v>
+      </c>
+      <c r="J23" s="2">
+        <v>40</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -2217,18 +2216,18 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D24" s="2">
         <v>33</v>
@@ -2246,28 +2245,28 @@
         <v>45648</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
@@ -2279,7 +2278,7 @@
       </c>
       <c r="W24" s="4"/>
       <c r="X24" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
